--- a/data/Affisis/1.xlsx
+++ b/data/Affisis/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\Affisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E2AFFB-0FAE-4CE0-95B7-8714D8204CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52660D6C-FEA8-4840-8985-E41FE21FACBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,219 +25,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>Registration Number</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>21MCA1059</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>AADITYA KUMAR</t>
   </si>
   <si>
-    <t>21MCA0004</t>
-  </si>
-  <si>
     <t>Kaviya S</t>
   </si>
   <si>
-    <t>21MCA0005</t>
-  </si>
-  <si>
     <t>MANOJKUMAR  P</t>
   </si>
   <si>
-    <t>21MCA0007</t>
-  </si>
-  <si>
     <t>Sandeep S</t>
   </si>
   <si>
-    <t>21MCA0023</t>
-  </si>
-  <si>
     <t>Sandeep C</t>
   </si>
   <si>
-    <t>21MCA0028</t>
-  </si>
-  <si>
     <t>PURUSHOTHAMAN B</t>
   </si>
   <si>
-    <t>21MCA0035</t>
-  </si>
-  <si>
     <t>VIGNESH K</t>
   </si>
   <si>
-    <t>21MCA0071</t>
-  </si>
-  <si>
     <t>Pasupuleti Gayathri .</t>
   </si>
   <si>
-    <t>21MCA0078</t>
-  </si>
-  <si>
     <t>Janani D</t>
   </si>
   <si>
-    <t>21MCA0082</t>
-  </si>
-  <si>
     <t>sneha A</t>
   </si>
   <si>
-    <t>21MCA0097</t>
-  </si>
-  <si>
     <t>Vinusha N</t>
   </si>
   <si>
-    <t>21MCA0118</t>
-  </si>
-  <si>
     <t>SHARUMATHI .</t>
   </si>
   <si>
-    <t>21MCA0121</t>
-  </si>
-  <si>
     <t>ANTRANG ARORA</t>
   </si>
   <si>
-    <t>21MCA0139</t>
-  </si>
-  <si>
     <t>Pratik Agrawal</t>
   </si>
   <si>
-    <t>21MCA0148</t>
-  </si>
-  <si>
     <t>SANGEETHA Y</t>
   </si>
   <si>
-    <t>21MCA0150</t>
-  </si>
-  <si>
     <t>LOGESHWARAN C</t>
   </si>
   <si>
-    <t>21MCA0158</t>
-  </si>
-  <si>
     <t>Sujatha R</t>
   </si>
   <si>
-    <t>21MCA0179</t>
-  </si>
-  <si>
     <t>Pragya Jain</t>
   </si>
   <si>
-    <t>21MCA0182</t>
-  </si>
-  <si>
     <t>Pavithra .S</t>
   </si>
   <si>
-    <t>21MCA0183</t>
-  </si>
-  <si>
     <t>KAJAL .</t>
   </si>
   <si>
-    <t>21MCA0184</t>
-  </si>
-  <si>
     <t>Frank Therattil</t>
   </si>
   <si>
-    <t>21MCA0218</t>
-  </si>
-  <si>
     <t>SHAILENDRA MUKATI</t>
   </si>
   <si>
-    <t>21MCA0225</t>
-  </si>
-  <si>
     <t>BALAJI C</t>
   </si>
   <si>
-    <t>21MCA0245</t>
-  </si>
-  <si>
     <t>Harshit Yadav</t>
   </si>
   <si>
-    <t>21MCA0252</t>
-  </si>
-  <si>
     <t>SALONI AGRAWAL</t>
   </si>
   <si>
-    <t>21MCA0272</t>
-  </si>
-  <si>
     <t>Bommireddy sai lakshmi prasanna</t>
   </si>
   <si>
-    <t>21MCA0294</t>
-  </si>
-  <si>
     <t>Dhaya nanadhan</t>
   </si>
   <si>
-    <t>21mca10008</t>
-  </si>
-  <si>
     <t> MUNI RAGHAVA VELASIRI </t>
   </si>
   <si>
-    <t>21MCA1001</t>
-  </si>
-  <si>
     <t>Avantika Sharma</t>
   </si>
   <si>
-    <t>21MCA1017</t>
-  </si>
-  <si>
     <t>SANJU BODRA</t>
   </si>
   <si>
-    <t>21MCA1042</t>
-  </si>
-  <si>
     <t>Naveen Gupta</t>
   </si>
   <si>
-    <t>21MCA1048</t>
-  </si>
-  <si>
     <t>ISHWARYA K .</t>
   </si>
   <si>
-    <t>21MCA1074</t>
-  </si>
-  <si>
     <t>JOYRAJ SAHA</t>
   </si>
   <si>
-    <t>21MCA1086</t>
-  </si>
-  <si>
     <t>Aditi Verma</t>
-  </si>
-  <si>
-    <t>21MCA1131</t>
   </si>
   <si>
     <t>RAJAT GHOSH</t>
@@ -276,53 +165,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,12 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,300 +471,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
